--- a/Code/Results/Cases/Case_2_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_220/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.384593618331735</v>
+        <v>2.31998719698953</v>
       </c>
       <c r="C2">
-        <v>0.9589892742448285</v>
+        <v>0.3284434136486425</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.02108192628250105</v>
+        <v>0.06291430085788541</v>
       </c>
       <c r="F2">
-        <v>2.72395463884304</v>
+        <v>3.344146860200027</v>
       </c>
       <c r="G2">
-        <v>0.0008148965251037062</v>
+        <v>0.002568520650615289</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.720175541031509</v>
+        <v>2.070593412977615</v>
       </c>
       <c r="J2">
-        <v>0.104632595021414</v>
+        <v>0.1552357495912808</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.2395237975473918</v>
+        <v>0.3815221499667274</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.938879287364443</v>
+        <v>2.22054201590953</v>
       </c>
       <c r="C3">
-        <v>0.8235099157727745</v>
+        <v>0.293117759577683</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.01952769518693209</v>
+        <v>0.06249437285523918</v>
       </c>
       <c r="F3">
-        <v>2.50643306503342</v>
+        <v>3.308271484791049</v>
       </c>
       <c r="G3">
-        <v>0.0008250363044836594</v>
+        <v>0.002574637840523529</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.605896680922726</v>
+        <v>2.052065791112952</v>
       </c>
       <c r="J3">
-        <v>0.1041890697199186</v>
+        <v>0.1555323562710349</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.2142881479614118</v>
+        <v>0.3778741111961637</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.670320479759539</v>
+        <v>2.160984004844067</v>
       </c>
       <c r="C4">
-        <v>0.7420575769074844</v>
+        <v>0.2715803440934224</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.0186099049647197</v>
+        <v>0.06223419967362975</v>
       </c>
       <c r="F4">
-        <v>2.3783192844555</v>
+        <v>3.287932731733747</v>
       </c>
       <c r="G4">
-        <v>0.0008314122640771212</v>
+        <v>0.002578588976247293</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.539420737716711</v>
+        <v>2.04169652986873</v>
       </c>
       <c r="J4">
-        <v>0.104123003004652</v>
+        <v>0.1557677312900161</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1990886249733137</v>
+        <v>0.3758282970611191</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.561996102051694</v>
+        <v>2.137090391879667</v>
       </c>
       <c r="C5">
-        <v>0.7092351100888834</v>
+        <v>0.2628410106868557</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.01824342015103753</v>
+        <v>0.06212755642720857</v>
       </c>
       <c r="F5">
-        <v>2.327350362869751</v>
+        <v>3.280067267120515</v>
       </c>
       <c r="G5">
-        <v>0.0008340506048113139</v>
+        <v>0.002580248345710868</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.513171428903263</v>
+        <v>2.037722450912369</v>
       </c>
       <c r="J5">
-        <v>0.1041435250737663</v>
+        <v>0.1558769292900308</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.192962074517979</v>
+        <v>0.3750435677590218</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.544071635141165</v>
+        <v>2.133145607069764</v>
       </c>
       <c r="C6">
-        <v>0.7038055135695913</v>
+        <v>0.2613920756346886</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.01818297506227573</v>
+        <v>0.06210980995323645</v>
       </c>
       <c r="F6">
-        <v>2.318958207213413</v>
+        <v>3.278786688962171</v>
       </c>
       <c r="G6">
-        <v>0.000834491185079737</v>
+        <v>0.002580526862508141</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.508861067378248</v>
+        <v>2.037077697783786</v>
       </c>
       <c r="J6">
-        <v>0.1041496773330479</v>
+        <v>0.1558958604131391</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.191948646069612</v>
+        <v>0.3749162253863219</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.66885527540893</v>
+        <v>2.160660242822644</v>
       </c>
       <c r="C7">
-        <v>0.7416135055867414</v>
+        <v>0.2714623325886123</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.01860493401880614</v>
+        <v>0.06223276400181277</v>
       </c>
       <c r="F7">
-        <v>2.377627049669414</v>
+        <v>3.287824946197119</v>
       </c>
       <c r="G7">
-        <v>0.0008314476803065183</v>
+        <v>0.002578611155496956</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.539063439282444</v>
+        <v>2.041641918031885</v>
       </c>
       <c r="J7">
-        <v>0.1041230931931949</v>
+        <v>0.155769150345705</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1990057359794406</v>
+        <v>0.3758175155011827</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.229742829268048</v>
+        <v>2.28538624032177</v>
       </c>
       <c r="C8">
-        <v>0.9118747972248968</v>
+        <v>0.316230791001658</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.02053738626290702</v>
+        <v>0.06276997425497477</v>
       </c>
       <c r="F8">
-        <v>2.647740493320626</v>
+        <v>3.331425316625555</v>
       </c>
       <c r="G8">
-        <v>0.000818363047687878</v>
+        <v>0.002570589459120823</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.679950327586255</v>
+        <v>2.063995109861324</v>
       </c>
       <c r="J8">
-        <v>0.1044340532783856</v>
+        <v>0.1553268988948773</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.2307569178871773</v>
+        <v>0.3802241077392807</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.378858957881107</v>
+        <v>2.541946728093819</v>
       </c>
       <c r="C9">
-        <v>1.262855194351971</v>
+        <v>0.4052853855436069</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.02470348341023154</v>
+        <v>0.06380645461354018</v>
       </c>
       <c r="F9">
-        <v>3.227239601800875</v>
+        <v>3.430421602009119</v>
       </c>
       <c r="G9">
-        <v>0.0007937766872793933</v>
+        <v>0.002556399365506066</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.989974448981968</v>
+        <v>2.115897865763003</v>
       </c>
       <c r="J9">
-        <v>0.1069064418768164</v>
+        <v>0.1548872783843649</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.295712937711329</v>
+        <v>0.3904000325702839</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.266971327988017</v>
+        <v>2.737847745461352</v>
       </c>
       <c r="C10">
-        <v>1.536524603834948</v>
+        <v>0.4715636487910615</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.0281375544349487</v>
+        <v>0.06455980792105809</v>
       </c>
       <c r="F10">
-        <v>3.693818372091499</v>
+        <v>3.511526093999436</v>
       </c>
       <c r="G10">
-        <v>0.0007761792246687007</v>
+        <v>0.002546901692801917</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.245389742110504</v>
+        <v>2.159065937826952</v>
       </c>
       <c r="J10">
-        <v>0.11022286279578</v>
+        <v>0.1548320575915696</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3456321201478971</v>
+        <v>0.3988061308000965</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.684203862216179</v>
+        <v>2.828602061844606</v>
       </c>
       <c r="C11">
-        <v>1.665897303238808</v>
+        <v>0.5019176601953745</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.02982103317304663</v>
+        <v>0.06490124586905566</v>
       </c>
       <c r="F11">
-        <v>3.917695296219193</v>
+        <v>3.550272692147928</v>
       </c>
       <c r="G11">
-        <v>0.0007682254100155462</v>
+        <v>0.002542779998705837</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.369456438795524</v>
+        <v>2.179823177440554</v>
       </c>
       <c r="J11">
-        <v>0.1121561091969951</v>
+        <v>0.1548666194728057</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3689637932825605</v>
+        <v>0.4028311602997832</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.844465393817188</v>
+        <v>2.86320558592007</v>
       </c>
       <c r="C12">
-        <v>1.715732906854214</v>
+        <v>0.5134425565116203</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.03048013473975164</v>
+        <v>0.06503039683906398</v>
       </c>
       <c r="F12">
-        <v>4.004414847868958</v>
+        <v>3.565213724725965</v>
       </c>
       <c r="G12">
-        <v>0.0007652160229128421</v>
+        <v>0.002541247628261095</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.417754921221757</v>
+        <v>2.187846427649575</v>
       </c>
       <c r="J12">
-        <v>0.1129592452845785</v>
+        <v>0.1548884154478642</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.37790261911573</v>
+        <v>0.4043841382013085</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.809843085269108</v>
+        <v>2.855742543187318</v>
       </c>
       <c r="C13">
-        <v>1.70495979827524</v>
+        <v>0.5109590884719069</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.03033714946869548</v>
+        <v>0.06500258766861577</v>
       </c>
       <c r="F13">
-        <v>3.985647111027191</v>
+        <v>3.561983926538971</v>
       </c>
       <c r="G13">
-        <v>0.0007658641200083296</v>
+        <v>0.002541576390095282</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.407291150650337</v>
+        <v>2.186111200207492</v>
       </c>
       <c r="J13">
-        <v>0.1127829370789186</v>
+        <v>0.154883331980038</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3759726290654726</v>
+        <v>0.4040483982685856</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.697341004093801</v>
+        <v>2.831444160402782</v>
       </c>
       <c r="C14">
-        <v>1.66997946786995</v>
+        <v>0.502865202321459</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.02987479811616289</v>
+        <v>0.06491187386684771</v>
       </c>
       <c r="F14">
-        <v>3.924789145562698</v>
+        <v>3.551496504988478</v>
       </c>
       <c r="G14">
-        <v>0.0007679778052769523</v>
+        <v>0.002542653360877667</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.373402427320272</v>
+        <v>2.180479978689391</v>
       </c>
       <c r="J14">
-        <v>0.1122206960447372</v>
+        <v>0.1548682373915611</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.3696970314730095</v>
+        <v>0.4029583484977763</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.628736899501519</v>
+        <v>2.816591581858916</v>
       </c>
       <c r="C15">
-        <v>1.648667703395574</v>
+        <v>0.4979114701276899</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.02959454546275175</v>
+        <v>0.06485629140517446</v>
       </c>
       <c r="F15">
-        <v>3.887773539859325</v>
+        <v>3.54510769533681</v>
       </c>
       <c r="G15">
-        <v>0.0007692726740915771</v>
+        <v>0.002543316733322126</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.352822097800157</v>
+        <v>2.177051968365376</v>
       </c>
       <c r="J15">
-        <v>0.1118858875065314</v>
+        <v>0.1548601293335352</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3658669926027329</v>
+        <v>0.4022944067822039</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.240000075891942</v>
+        <v>2.731949806681257</v>
       </c>
       <c r="C16">
-        <v>1.528179706202764</v>
+        <v>0.469584143742793</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.02803031394063105</v>
+        <v>0.06453747189441827</v>
       </c>
       <c r="F16">
-        <v>3.679443651102673</v>
+        <v>3.509031367003303</v>
       </c>
       <c r="G16">
-        <v>0.0007766996621935276</v>
+        <v>0.002547175042338389</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.237455324090746</v>
+        <v>2.157732099901395</v>
       </c>
       <c r="J16">
-        <v>0.1101058810262714</v>
+        <v>0.1548310105867898</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3441210335558225</v>
+        <v>0.39854712060297</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.005150948176095</v>
+        <v>2.680445240744575</v>
       </c>
       <c r="C17">
-        <v>1.455608810450315</v>
+        <v>0.4522592653268021</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.02710449693388739</v>
+        <v>0.06434158890835384</v>
       </c>
       <c r="F17">
-        <v>3.55479803502277</v>
+        <v>3.487375583992247</v>
       </c>
       <c r="G17">
-        <v>0.0007812658179210496</v>
+        <v>0.00254959279917507</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.16882161676817</v>
+        <v>2.146168156781343</v>
       </c>
       <c r="J17">
-        <v>0.1091292495930745</v>
+        <v>0.1548285224453423</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3309495660293891</v>
+        <v>0.3962996863282484</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.87129205802637</v>
+        <v>2.650975267344222</v>
       </c>
       <c r="C18">
-        <v>1.414317371844959</v>
+        <v>0.4423135534465814</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.02658311803588465</v>
+        <v>0.06422880070339954</v>
       </c>
       <c r="F18">
-        <v>3.484181293554798</v>
+        <v>3.475093910023162</v>
       </c>
       <c r="G18">
-        <v>0.0007838973133131935</v>
+        <v>0.002551002155221449</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.130074185504242</v>
+        <v>2.139622175278078</v>
       </c>
       <c r="J18">
-        <v>0.1086067918838935</v>
+        <v>0.1548327013006627</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.323431396079485</v>
+        <v>0.3950259528233317</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.826169136761109</v>
+        <v>2.64102366756174</v>
       </c>
       <c r="C19">
-        <v>1.4004099885492</v>
+        <v>0.4389493505170208</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.02640838484795616</v>
+        <v>0.06419059054477749</v>
       </c>
       <c r="F19">
-        <v>3.460448915317841</v>
+        <v>3.470965390027231</v>
       </c>
       <c r="G19">
-        <v>0.0007847893148011135</v>
+        <v>0.002551482560277392</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.117074983715895</v>
+        <v>2.137423844948955</v>
       </c>
       <c r="J19">
-        <v>0.1084363644485293</v>
+        <v>0.1548350758872274</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3208953893463615</v>
+        <v>0.3945979438772582</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.030022311539994</v>
+        <v>2.685912032745989</v>
       </c>
       <c r="C20">
-        <v>1.463286627496075</v>
+        <v>0.4541015428119977</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.02720187253405371</v>
+        <v>0.06436245328789703</v>
       </c>
       <c r="F20">
-        <v>3.567953570288978</v>
+        <v>3.489662837954256</v>
       </c>
       <c r="G20">
-        <v>0.000780779241256937</v>
+        <v>0.0025493334879411</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.176051111010679</v>
+        <v>2.147388247174604</v>
       </c>
       <c r="J20">
-        <v>0.1092290818039032</v>
+        <v>0.154828205793514</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3323456232660504</v>
+        <v>0.3965369711489046</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.730320952208558</v>
+        <v>2.838574746124095</v>
       </c>
       <c r="C21">
-        <v>1.680229845751569</v>
+        <v>0.5052417357046011</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.03000997834405972</v>
+        <v>0.06493852231675312</v>
       </c>
       <c r="F21">
-        <v>3.942609534606021</v>
+        <v>3.554569608778763</v>
       </c>
       <c r="G21">
-        <v>0.0007673569377439904</v>
+        <v>0.00254233625832265</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.383319006773803</v>
+        <v>2.182129567752696</v>
       </c>
       <c r="J21">
-        <v>0.1123838229546124</v>
+        <v>0.1548724336923755</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3715373923647718</v>
+        <v>0.4032777422494291</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.201418954581129</v>
+        <v>2.939729757987834</v>
       </c>
       <c r="C22">
-        <v>1.827024591510849</v>
+        <v>0.5388431042305797</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.03197372503460727</v>
+        <v>0.0653141944561515</v>
       </c>
       <c r="F22">
-        <v>4.198946543755795</v>
+        <v>3.598556241405959</v>
       </c>
       <c r="G22">
-        <v>0.0007585967277849315</v>
+        <v>0.002537928775260452</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.526565383363476</v>
+        <v>2.205785626726538</v>
       </c>
       <c r="J22">
-        <v>0.114865789107597</v>
+        <v>0.1549521561381013</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3977635453541382</v>
+        <v>0.4078509615335975</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.948622288961985</v>
+        <v>2.885614606026024</v>
       </c>
       <c r="C23">
-        <v>1.748165241241622</v>
+        <v>0.5208927056391985</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.03091228193877082</v>
+        <v>0.06511375370617145</v>
       </c>
       <c r="F23">
-        <v>4.060983932519662</v>
+        <v>3.574935677541674</v>
       </c>
       <c r="G23">
-        <v>0.0007632729182904433</v>
+        <v>0.002540266033708456</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.449330982033771</v>
+        <v>2.193072331342734</v>
       </c>
       <c r="J23">
-        <v>0.1134988904520071</v>
+        <v>0.154904915109995</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3837049685687788</v>
+        <v>0.4053948404811223</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.018774384765379</v>
+        <v>2.683440057967971</v>
       </c>
       <c r="C24">
-        <v>1.459814155888921</v>
+        <v>0.4532686038025986</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.02715781542149376</v>
+        <v>0.06435302104205398</v>
       </c>
       <c r="F24">
-        <v>3.562002721824797</v>
+        <v>3.488628245693008</v>
       </c>
       <c r="G24">
-        <v>0.0007809992024617882</v>
+        <v>0.002549450662153402</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.172780455611516</v>
+        <v>2.146836325861045</v>
       </c>
       <c r="J24">
-        <v>0.1091838268538083</v>
+        <v>0.1548283314891279</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3317142977436163</v>
+        <v>0.3964296375270209</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.06140411362378</v>
+        <v>2.471247711878448</v>
       </c>
       <c r="C25">
-        <v>1.165564208657145</v>
+        <v>0.3810503207228066</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.02352272726601878</v>
+        <v>0.06352765182307518</v>
       </c>
       <c r="F25">
-        <v>3.064137507474101</v>
+        <v>3.402180806766978</v>
       </c>
       <c r="G25">
-        <v>0.0008003310759871742</v>
+        <v>0.002560074418287771</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.901817203055046</v>
+        <v>2.100981044577196</v>
       </c>
       <c r="J25">
-        <v>0.1060037452717211</v>
+        <v>0.1549596987424202</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2777992478426512</v>
+        <v>0.3874834901034205</v>
       </c>
       <c r="M25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_220/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_220/res_line/pl_mw.xlsx
@@ -421,37 +421,37 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.31998719698953</v>
+        <v>3.384593618331792</v>
       </c>
       <c r="C2">
-        <v>0.3284434136486425</v>
+        <v>0.9589892742450843</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06291430085788541</v>
+        <v>0.02108192628257921</v>
       </c>
       <c r="F2">
-        <v>3.344146860200027</v>
+        <v>2.723954638843054</v>
       </c>
       <c r="G2">
-        <v>0.002568520650615289</v>
+        <v>0.0008148965252132593</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>2.070593412977615</v>
+        <v>1.720175541031509</v>
       </c>
       <c r="J2">
-        <v>0.1552357495912808</v>
+        <v>0.1046325950213998</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3815221499667274</v>
+        <v>0.2395237975474345</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -468,37 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.22054201590953</v>
+        <v>2.938879287364614</v>
       </c>
       <c r="C3">
-        <v>0.293117759577683</v>
+        <v>0.823509915772803</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06249437285523918</v>
+        <v>0.01952769518686814</v>
       </c>
       <c r="F3">
-        <v>3.308271484791049</v>
+        <v>2.50643306503342</v>
       </c>
       <c r="G3">
-        <v>0.002574637840523529</v>
+        <v>0.0008250363045997066</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>2.052065791112952</v>
+        <v>1.60589668092274</v>
       </c>
       <c r="J3">
-        <v>0.1555323562710349</v>
+        <v>0.1041890697197339</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3778741111961637</v>
+        <v>0.2142881479615113</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -515,37 +515,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.160984004844067</v>
+        <v>2.670320479759482</v>
       </c>
       <c r="C4">
-        <v>0.2715803440934224</v>
+        <v>0.7420575769077402</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06223419967362975</v>
+        <v>0.0186099049646824</v>
       </c>
       <c r="F4">
-        <v>3.287932731733747</v>
+        <v>2.378319284455515</v>
       </c>
       <c r="G4">
-        <v>0.002578588976247293</v>
+        <v>0.0008314122639560986</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>2.04169652986873</v>
+        <v>1.539420737716711</v>
       </c>
       <c r="J4">
-        <v>0.1557677312900161</v>
+        <v>0.1041230030047444</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3758282970611191</v>
+        <v>0.1990886249732853</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -562,37 +562,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.137090391879667</v>
+        <v>2.561996102051694</v>
       </c>
       <c r="C5">
-        <v>0.2628410106868557</v>
+        <v>0.7092351100884287</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06212755642720857</v>
+        <v>0.01824342015105085</v>
       </c>
       <c r="F5">
-        <v>3.280067267120515</v>
+        <v>2.327350362869765</v>
       </c>
       <c r="G5">
-        <v>0.002580248345710868</v>
+        <v>0.0008340506048627388</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>2.037722450912369</v>
+        <v>1.513171428903235</v>
       </c>
       <c r="J5">
-        <v>0.1558769292900308</v>
+        <v>0.1041435250737415</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3750435677590218</v>
+        <v>0.1929620745179434</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -609,37 +609,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.133145607069764</v>
+        <v>2.544071635141336</v>
       </c>
       <c r="C6">
-        <v>0.2613920756346886</v>
+        <v>0.7038055135698187</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06210980995323645</v>
+        <v>0.01818297506228106</v>
       </c>
       <c r="F6">
-        <v>3.278786688962171</v>
+        <v>2.318958207213427</v>
       </c>
       <c r="G6">
-        <v>0.002580526862508141</v>
+        <v>0.000834491185137517</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>2.037077697783786</v>
+        <v>1.508861067378234</v>
       </c>
       <c r="J6">
-        <v>0.1558958604131391</v>
+        <v>0.1041496773330373</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3749162253863219</v>
+        <v>0.191948646069612</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -656,37 +656,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.160660242822644</v>
+        <v>2.668855275408816</v>
       </c>
       <c r="C7">
-        <v>0.2714623325886123</v>
+        <v>0.7416135055865141</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06223276400181277</v>
+        <v>0.01860493401880081</v>
       </c>
       <c r="F7">
-        <v>3.287824946197119</v>
+        <v>2.377627049669428</v>
       </c>
       <c r="G7">
-        <v>0.002578611155496956</v>
+        <v>0.0008314476803044261</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>2.041641918031885</v>
+        <v>1.539063439282444</v>
       </c>
       <c r="J7">
-        <v>0.155769150345705</v>
+        <v>0.1041230931931558</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3758175155011827</v>
+        <v>0.199005735979469</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -703,37 +703,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.28538624032177</v>
+        <v>3.229742829267991</v>
       </c>
       <c r="C8">
-        <v>0.316230791001658</v>
+        <v>0.91187479722538</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06276997425497477</v>
+        <v>0.020537386262931</v>
       </c>
       <c r="F8">
-        <v>3.331425316625555</v>
+        <v>2.647740493320612</v>
       </c>
       <c r="G8">
-        <v>0.002570589459120823</v>
+        <v>0.0008183630478078887</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>2.063995109861324</v>
+        <v>1.679950327586241</v>
       </c>
       <c r="J8">
-        <v>0.1553268988948773</v>
+        <v>0.104434053278343</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3802241077392807</v>
+        <v>0.2307569178871347</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -750,37 +750,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.541946728093819</v>
+        <v>4.378858957881164</v>
       </c>
       <c r="C9">
-        <v>0.4052853855436069</v>
+        <v>1.262855194351687</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06380645461354018</v>
+        <v>0.02470348341025463</v>
       </c>
       <c r="F9">
-        <v>3.430421602009119</v>
+        <v>3.227239601800932</v>
       </c>
       <c r="G9">
-        <v>0.002556399365506066</v>
+        <v>0.0007937766873477646</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>2.115897865763003</v>
+        <v>1.989974448982011</v>
       </c>
       <c r="J9">
-        <v>0.1548872783843649</v>
+        <v>0.1069064418767312</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3904000325702839</v>
+        <v>0.2957129377113858</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -797,37 +797,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.737847745461352</v>
+        <v>5.266971327987733</v>
       </c>
       <c r="C10">
-        <v>0.4715636487910615</v>
+        <v>1.536524603835062</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06455980792105809</v>
+        <v>0.0281375544349558</v>
       </c>
       <c r="F10">
-        <v>3.511526093999436</v>
+        <v>3.693818372091471</v>
       </c>
       <c r="G10">
-        <v>0.002546901692801917</v>
+        <v>0.0007761792248588943</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.159065937826952</v>
+        <v>2.24538974211049</v>
       </c>
       <c r="J10">
-        <v>0.1548320575915696</v>
+        <v>0.1102228627959505</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3988061308000965</v>
+        <v>0.3456321201479113</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -844,37 +844,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.828602061844606</v>
+        <v>5.684203862216236</v>
       </c>
       <c r="C11">
-        <v>0.5019176601953745</v>
+        <v>1.665897303238978</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06490124586905566</v>
+        <v>0.02982103317307594</v>
       </c>
       <c r="F11">
-        <v>3.550272692147928</v>
+        <v>3.917695296219193</v>
       </c>
       <c r="G11">
-        <v>0.002542779998705837</v>
+        <v>0.0007682254100137899</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.179823177440554</v>
+        <v>2.369456438795524</v>
       </c>
       <c r="J11">
-        <v>0.1548666194728057</v>
+        <v>0.1121561091970733</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.4028311602997832</v>
+        <v>0.3689637932826457</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -891,37 +891,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.86320558592007</v>
+        <v>5.844465393817131</v>
       </c>
       <c r="C12">
-        <v>0.5134425565116203</v>
+        <v>1.715732906854498</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06503039683906398</v>
+        <v>0.0304801347397774</v>
       </c>
       <c r="F12">
-        <v>3.565213724725965</v>
+        <v>4.004414847868958</v>
       </c>
       <c r="G12">
-        <v>0.002541247628261095</v>
+        <v>0.0007652160227555419</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.187846427649575</v>
+        <v>2.417754921221757</v>
       </c>
       <c r="J12">
-        <v>0.1548884154478642</v>
+        <v>0.1129592452845145</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.4043841382013085</v>
+        <v>0.3779026191158579</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -938,37 +938,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.855742543187318</v>
+        <v>5.809843085269051</v>
       </c>
       <c r="C13">
-        <v>0.5109590884719069</v>
+        <v>1.704959798275752</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06500258766861577</v>
+        <v>0.03033714946875143</v>
       </c>
       <c r="F13">
-        <v>3.561983926538971</v>
+        <v>3.985647111027134</v>
       </c>
       <c r="G13">
-        <v>0.002541576390095282</v>
+        <v>0.0007658641200024733</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.186111200207492</v>
+        <v>2.407291150650352</v>
       </c>
       <c r="J13">
-        <v>0.154883331980038</v>
+        <v>0.1127829370790394</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.4040483982685856</v>
+        <v>0.3759726290655578</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -985,37 +985,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.831444160402782</v>
+        <v>5.697341004093857</v>
       </c>
       <c r="C14">
-        <v>0.502865202321459</v>
+        <v>1.66997946786995</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06491187386684771</v>
+        <v>0.02987479811614246</v>
       </c>
       <c r="F14">
-        <v>3.551496504988478</v>
+        <v>3.924789145562698</v>
       </c>
       <c r="G14">
-        <v>0.002542653360877667</v>
+        <v>0.0007679778051381328</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.180479978689391</v>
+        <v>2.373402427320286</v>
       </c>
       <c r="J14">
-        <v>0.1548682373915611</v>
+        <v>0.112220696044858</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.4029583484977763</v>
+        <v>0.3696970314730947</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1032,37 +1032,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.816591581858916</v>
+        <v>5.628736899501462</v>
       </c>
       <c r="C15">
-        <v>0.4979114701276899</v>
+        <v>1.648667703395972</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06485629140517446</v>
+        <v>0.02959454546278906</v>
       </c>
       <c r="F15">
-        <v>3.54510769533681</v>
+        <v>3.887773539859325</v>
       </c>
       <c r="G15">
-        <v>0.002543316733322126</v>
+        <v>0.0007692726740911038</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.177051968365376</v>
+        <v>2.352822097800143</v>
       </c>
       <c r="J15">
-        <v>0.1548601293335352</v>
+        <v>0.1118858875065101</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.4022944067822039</v>
+        <v>0.3658669926027045</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1079,37 +1079,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.731949806681257</v>
+        <v>5.240000075892112</v>
       </c>
       <c r="C16">
-        <v>0.469584143742793</v>
+        <v>1.528179706202479</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06453747189441827</v>
+        <v>0.02803031394062128</v>
       </c>
       <c r="F16">
-        <v>3.509031367003303</v>
+        <v>3.67944365110273</v>
       </c>
       <c r="G16">
-        <v>0.002547175042338389</v>
+        <v>0.0007766996621884448</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.157732099901395</v>
+        <v>2.237455324090789</v>
       </c>
       <c r="J16">
-        <v>0.1548310105867898</v>
+        <v>0.1101058810262927</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.39854712060297</v>
+        <v>0.3441210335556946</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1126,37 +1126,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.680445240744575</v>
+        <v>5.005150948176208</v>
       </c>
       <c r="C17">
-        <v>0.4522592653268021</v>
+        <v>1.455608810450485</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06434158890835384</v>
+        <v>0.02710449693390782</v>
       </c>
       <c r="F17">
-        <v>3.487375583992247</v>
+        <v>3.554798035022827</v>
       </c>
       <c r="G17">
-        <v>0.00254959279917507</v>
+        <v>0.0007812658179748655</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.146168156781343</v>
+        <v>2.168821616768184</v>
       </c>
       <c r="J17">
-        <v>0.1548285224453423</v>
+        <v>0.10912924959311</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3962996863282484</v>
+        <v>0.3309495660294743</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1173,37 +1173,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.650975267344222</v>
+        <v>4.87129205802654</v>
       </c>
       <c r="C18">
-        <v>0.4423135534465814</v>
+        <v>1.414317371845357</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06422880070339954</v>
+        <v>0.02658311803587932</v>
       </c>
       <c r="F18">
-        <v>3.475093910023162</v>
+        <v>3.484181293554855</v>
       </c>
       <c r="G18">
-        <v>0.002551002155221449</v>
+        <v>0.0007838973133827023</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>2.139622175278078</v>
+        <v>2.130074185504242</v>
       </c>
       <c r="J18">
-        <v>0.1548327013006627</v>
+        <v>0.108606791883922</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.3950259528233317</v>
+        <v>0.3234313960794992</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1220,37 +1220,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.64102366756174</v>
+        <v>4.826169136761109</v>
       </c>
       <c r="C19">
-        <v>0.4389493505170208</v>
+        <v>1.400409988549086</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.06419059054477749</v>
+        <v>0.02640838484797037</v>
       </c>
       <c r="F19">
-        <v>3.470965390027231</v>
+        <v>3.460448915317812</v>
       </c>
       <c r="G19">
-        <v>0.002551482560277392</v>
+        <v>0.0007847893148515494</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>2.137423844948955</v>
+        <v>2.117074983715909</v>
       </c>
       <c r="J19">
-        <v>0.1548350758872274</v>
+        <v>0.1084363644485364</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.3945979438772582</v>
+        <v>0.3208953893463331</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1267,37 +1267,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.685912032745989</v>
+        <v>5.030022311539994</v>
       </c>
       <c r="C20">
-        <v>0.4541015428119977</v>
+        <v>1.463286627496359</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06436245328789703</v>
+        <v>0.02720187253407502</v>
       </c>
       <c r="F20">
-        <v>3.489662837954256</v>
+        <v>3.567953570288978</v>
       </c>
       <c r="G20">
-        <v>0.0025493334879411</v>
+        <v>0.0007807792412141863</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.147388247174604</v>
+        <v>2.176051111010679</v>
       </c>
       <c r="J20">
-        <v>0.154828205793514</v>
+        <v>0.1092290818039316</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3965369711489046</v>
+        <v>0.3323456232661357</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1314,37 +1314,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.838574746124095</v>
+        <v>5.730320952208501</v>
       </c>
       <c r="C21">
-        <v>0.5052417357046011</v>
+        <v>1.680229845751455</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06493852231675312</v>
+        <v>0.0300099783441361</v>
       </c>
       <c r="F21">
-        <v>3.554569608778763</v>
+        <v>3.942609534605992</v>
       </c>
       <c r="G21">
-        <v>0.00254233625832265</v>
+        <v>0.0007673569377273985</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.182129567752696</v>
+        <v>2.383319006773789</v>
       </c>
       <c r="J21">
-        <v>0.1548724336923755</v>
+        <v>0.1123838229544916</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.4032777422494291</v>
+        <v>0.3715373923649423</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1361,37 +1361,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.939729757987834</v>
+        <v>6.201418954581129</v>
       </c>
       <c r="C22">
-        <v>0.5388431042305797</v>
+        <v>1.82702459151119</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.0653141944561515</v>
+        <v>0.03197372503451312</v>
       </c>
       <c r="F22">
-        <v>3.598556241405959</v>
+        <v>4.198946543755739</v>
       </c>
       <c r="G22">
-        <v>0.002537928775260452</v>
+        <v>0.0007585967277909969</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.205785626726538</v>
+        <v>2.526565383363462</v>
       </c>
       <c r="J22">
-        <v>0.1549521561381013</v>
+        <v>0.1148657891075047</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.4078509615335975</v>
+        <v>0.3977635453542803</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1408,37 +1408,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.885614606026024</v>
+        <v>5.948622288961644</v>
       </c>
       <c r="C23">
-        <v>0.5208927056391985</v>
+        <v>1.748165241241622</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06511375370617145</v>
+        <v>0.03091228193876727</v>
       </c>
       <c r="F23">
-        <v>3.574935677541674</v>
+        <v>4.06098393251969</v>
       </c>
       <c r="G23">
-        <v>0.002540266033708456</v>
+        <v>0.0007632729185010492</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.193072331342734</v>
+        <v>2.449330982033786</v>
       </c>
       <c r="J23">
-        <v>0.154904915109995</v>
+        <v>0.1134988904520284</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.4053948404811223</v>
+        <v>0.3837049685686367</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1455,37 +1455,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.683440057967971</v>
+        <v>5.01877438476555</v>
       </c>
       <c r="C24">
-        <v>0.4532686038025986</v>
+        <v>1.459814155889148</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06435302104205398</v>
+        <v>0.02715781542150264</v>
       </c>
       <c r="F24">
-        <v>3.488628245693008</v>
+        <v>3.562002721824769</v>
       </c>
       <c r="G24">
-        <v>0.002549450662153402</v>
+        <v>0.0007809992024508885</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.146836325861045</v>
+        <v>2.172780455611502</v>
       </c>
       <c r="J24">
-        <v>0.1548283314891279</v>
+        <v>0.1091838268536947</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3964296375270209</v>
+        <v>0.3317142977434884</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1502,37 +1502,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.471247711878448</v>
+        <v>4.061404113623894</v>
       </c>
       <c r="C25">
-        <v>0.3810503207228066</v>
+        <v>1.165564208657543</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.06352765182307518</v>
+        <v>0.02352272726605875</v>
       </c>
       <c r="F25">
-        <v>3.402180806766978</v>
+        <v>3.064137507474044</v>
       </c>
       <c r="G25">
-        <v>0.002560074418287771</v>
+        <v>0.000800331075991892</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>2.100981044577196</v>
+        <v>1.901817203055032</v>
       </c>
       <c r="J25">
-        <v>0.1549596987424202</v>
+        <v>0.1060037452717566</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3874834901034205</v>
+        <v>0.277799247842637</v>
       </c>
       <c r="M25">
         <v>0</v>
